--- a/leidens/mlist.xlsx
+++ b/leidens/mlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\leidens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randymi\Desktop\seuratwork\label transfer\New Data 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A9FFEA-350A-49C3-ADA4-2F17DEEC5273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB967A0A-6691-4B2C-8332-9E2BCE8FCE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{DD7C21F5-C340-4648-990C-65213BE3960D}"/>
+    <workbookView xWindow="3517" yWindow="1890" windowWidth="16200" windowHeight="9315" xr2:uid="{DD7C21F5-C340-4648-990C-65213BE3960D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="725">
   <si>
     <t>DC1_gene</t>
   </si>
@@ -2194,6 +2194,45 @@
   </si>
   <si>
     <t>IGHD</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>Bcell_gene</t>
+  </si>
+  <si>
+    <t>DCD</t>
+  </si>
+  <si>
+    <t>MUCL1</t>
+  </si>
+  <si>
+    <t>PIP</t>
+  </si>
+  <si>
+    <t>SCGB1D2</t>
+  </si>
+  <si>
+    <t>SCGB2A2</t>
+  </si>
+  <si>
+    <t>CDH15</t>
+  </si>
+  <si>
+    <t>VWF</t>
+  </si>
+  <si>
+    <t>Keratinocyte_gene</t>
+  </si>
+  <si>
+    <t>Eccrine Gland_gene</t>
+  </si>
+  <si>
+    <t>Endothelial_gene</t>
+  </si>
+  <si>
+    <t>Smooth Muscle_gene</t>
   </si>
 </sst>
 </file>
@@ -2561,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5F15C6-E92A-EE4D-AF95-B79CF84F9470}">
-  <dimension ref="A1:DN66"/>
+  <dimension ref="A1:DS32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="CZ31" sqref="CZ31"/>
+    <sheetView tabSelected="1" topLeftCell="DK1" workbookViewId="0">
+      <selection activeCell="DT2" sqref="DT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2572,14 +2611,15 @@
     <col min="17" max="17" width="23.5" customWidth="1"/>
     <col min="20" max="20" width="18" customWidth="1"/>
     <col min="118" max="118" width="24.125" customWidth="1"/>
+    <col min="123" max="123" width="20.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="2" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:123" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2931,8 +2971,23 @@
       <c r="DN2" t="s">
         <v>74</v>
       </c>
+      <c r="DO2" t="s">
+        <v>713</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>721</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>722</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>723</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>724</v>
+      </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3287,8 +3342,23 @@
       <c r="DN3">
         <v>99.519049999999993</v>
       </c>
+      <c r="DO3" t="s">
+        <v>708</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>131</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>714</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>527</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>596</v>
+      </c>
     </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3643,8 +3713,23 @@
       <c r="DN4">
         <v>55.736109999999996</v>
       </c>
+      <c r="DO4" t="s">
+        <v>342</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>245</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>715</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>719</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3999,8 +4084,23 @@
       <c r="DN5">
         <v>223.67845</v>
       </c>
+      <c r="DO5" t="s">
+        <v>710</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>101</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>716</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>199</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4355,8 +4455,23 @@
       <c r="DN6">
         <v>33.340294</v>
       </c>
+      <c r="DO6" t="s">
+        <v>711</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>100</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>717</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>720</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>243</v>
+      </c>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4711,8 +4826,20 @@
       <c r="DN7">
         <v>21.71508</v>
       </c>
+      <c r="DP7" t="s">
+        <v>231</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>718</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>236</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>326</v>
+      </c>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5068,7 +5195,7 @@
         <v>33.893394000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5424,7 +5551,7 @@
         <v>10.3380375</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5780,7 +5907,7 @@
         <v>6.2136754999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6136,7 +6263,7 @@
         <v>10.151676</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6492,7 +6619,7 @@
         <v>19.432661</v>
       </c>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6850,7 +6977,7 @@
         <v>13.223959000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7206,7 +7333,7 @@
         <v>12.106557</v>
       </c>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7563,7 +7690,7 @@
         <v>26.906103000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:123" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>14</v>
       </c>
@@ -13615,1365 +13742,6 @@
       </c>
       <c r="DN32">
         <v>37.753419999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B34" t="s">
-        <v>692</v>
-      </c>
-      <c r="H34" t="s">
-        <v>693</v>
-      </c>
-      <c r="J34" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="35" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B35" t="str" cm="1">
-        <f t="array" ref="B35:B46">_xlfn._xlws.FILTER(B3:B32, ISNUMBER(MATCH(B3:B32, E3:E32, 0)))</f>
-        <v>HLA-DRA</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="H35" t="str" cm="1">
-        <f t="array" ref="H35:H45">_xlfn._xlws.FILTER(H3:H32, (ISNUMBER(MATCH(H3:H32, K3:K32, 0))) * (ISNUMBER(MATCH(H3:H32, N3:N32, 0))))</f>
-        <v>MMP2</v>
-      </c>
-      <c r="J35" t="str" cm="1">
-        <f t="array" ref="J35:J39">_xlfn._xlws.FILTER(Q3:Q32, (ISNUMBER(MATCH(Q3:Q32, T3:T32, 0))) * (ISNUMBER(MATCH(Q3:Q32, W3:W32, 0))))</f>
-        <v>KLRB1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B36" t="str">
-        <v>HLA-DQB1</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="H36" t="str">
-        <v>TNFAIP6</v>
-      </c>
-      <c r="J36" t="str">
-        <v>PTPRC</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>664</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>696</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>697</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>667</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>698</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>699</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>700</v>
-      </c>
-      <c r="BP36" t="s">
-        <v>701</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>702</v>
-      </c>
-      <c r="BY36" t="s">
-        <v>703</v>
-      </c>
-      <c r="CB36" t="s">
-        <v>687</v>
-      </c>
-      <c r="CE36" t="s">
-        <v>704</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>45</v>
-      </c>
-      <c r="CN36" t="s">
-        <v>48</v>
-      </c>
-      <c r="CQ36" t="s">
-        <v>51</v>
-      </c>
-      <c r="CT36" t="s">
-        <v>705</v>
-      </c>
-      <c r="CV36" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="37" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B37" t="str">
-        <v>HLA-DPB1</v>
-      </c>
-      <c r="H37" t="str">
-        <v>C1S</v>
-      </c>
-      <c r="J37" t="str">
-        <v>SRGN</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC37" t="str" cm="1">
-        <f t="array" ref="AC37:AC47">_xlfn._xlws.FILTER(AC3:AC32, (ISNUMBER(MATCH(AC3:AC32, AF3:AF32, 0))) * (ISNUMBER(MATCH(AC3:AC32, AI3:AI32, 0))) * (ISNUMBER(MATCH(AC3:AC32, AL3:AL32, 0))))</f>
-        <v>HLA-DQB2</v>
-      </c>
-      <c r="AN37" t="str" cm="1">
-        <f t="array" ref="AN37:AN45">_xlfn._xlws.FILTER(AO3:AO32, ISNUMBER(MATCH(AO3:AO32, AR3:AR32, 0)))</f>
-        <v>CCL21</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>90</v>
-      </c>
-      <c r="AX37" t="str" cm="1">
-        <f t="array" ref="AX37:AX45">_xlfn._xlws.FILTER(AX3:AX32, ISNUMBER(MATCH(AX3:AX32, BA3:BA32, 0)))</f>
-        <v>RNASE1</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP37" t="str" cm="1">
-        <f t="array" ref="BP37:BP41">_xlfn._xlws.FILTER(BP3:BP32, ISNUMBER(MATCH(BP3:BP32, BS3:BS32, 0)))</f>
-        <v>CALD1</v>
-      </c>
-      <c r="BV37" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY37" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB37" t="s">
-        <v>101</v>
-      </c>
-      <c r="CE37" t="str" cm="1">
-        <f t="array" ref="CE37:CE38">_xlfn._xlws.FILTER(CE3:CE32, ISNUMBER(MATCH(CE3:CE32, CH3:CH32, 0)))</f>
-        <v>ID3</v>
-      </c>
-      <c r="CK37" t="s">
-        <v>82</v>
-      </c>
-      <c r="CN37" t="s">
-        <v>104</v>
-      </c>
-      <c r="CQ37" t="s">
-        <v>105</v>
-      </c>
-      <c r="CT37" t="str" cm="1">
-        <f t="array" ref="CT37:CT45">_xlfn._xlws.FILTER(DC3:DC32, (ISNUMBER(MATCH(DC3:DC32, DF3:DF32, 0))) * (ISNUMBER(MATCH(DC3:DC32, DI3:DI32, 0))))</f>
-        <v>CCR7</v>
-      </c>
-      <c r="CV37" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX37" t="str" cm="1">
-        <f t="array" ref="CX37:CX41">_xlfn._xlws.FILTER(CT3:CT32,(ISNUMBER(MATCH(CT3:CT32,CW3:CW32,0)))*(ISNUMBER(MATCH(CW3:CW32,CZ3:CZ32,0))))</f>
-        <v>TM4SF1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B38" t="str">
-        <v>GPR183</v>
-      </c>
-      <c r="H38" t="str">
-        <v>COL6A2</v>
-      </c>
-      <c r="J38" t="str">
-        <v>SARAF</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC38" t="str">
-        <v>HLA-DQB1</v>
-      </c>
-      <c r="AN38" t="str">
-        <v>TFF3</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX38" t="str">
-        <v>FTL</v>
-      </c>
-      <c r="BD38" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM38" t="s">
-        <v>128</v>
-      </c>
-      <c r="BP38" t="str">
-        <v>RGS5</v>
-      </c>
-      <c r="BV38" t="s">
-        <v>130</v>
-      </c>
-      <c r="BY38" t="s">
-        <v>131</v>
-      </c>
-      <c r="CB38" t="s">
-        <v>110</v>
-      </c>
-      <c r="CE38" t="str">
-        <v>PRRX1</v>
-      </c>
-      <c r="CK38" t="s">
-        <v>104</v>
-      </c>
-      <c r="CN38" t="s">
-        <v>115</v>
-      </c>
-      <c r="CQ38" t="s">
-        <v>134</v>
-      </c>
-      <c r="CT38" t="str">
-        <v>CCL22</v>
-      </c>
-      <c r="CV38" t="s">
-        <v>139</v>
-      </c>
-      <c r="CX38" t="str">
-        <v>SPARCL1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B39" t="str">
-        <v>CD74</v>
-      </c>
-      <c r="H39" t="str">
-        <v>DCN</v>
-      </c>
-      <c r="J39" t="str">
-        <v>CD69</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC39" t="str">
-        <v>ACOT7</v>
-      </c>
-      <c r="AN39" t="str">
-        <v>TFPI</v>
-      </c>
-      <c r="AU39" t="s">
-        <v>149</v>
-      </c>
-      <c r="AX39" t="str">
-        <v>FCER1G</v>
-      </c>
-      <c r="BD39" t="s">
-        <v>151</v>
-      </c>
-      <c r="BM39" t="s">
-        <v>153</v>
-      </c>
-      <c r="BP39" t="str">
-        <v>PLPP3</v>
-      </c>
-      <c r="BV39" t="s">
-        <v>155</v>
-      </c>
-      <c r="BY39" t="s">
-        <v>156</v>
-      </c>
-      <c r="CB39" t="s">
-        <v>157</v>
-      </c>
-      <c r="CK39" t="s">
-        <v>160</v>
-      </c>
-      <c r="CN39" t="s">
-        <v>161</v>
-      </c>
-      <c r="CQ39" t="s">
-        <v>162</v>
-      </c>
-      <c r="CT39" t="str">
-        <v>TYROBP</v>
-      </c>
-      <c r="CV39" t="s">
-        <v>101</v>
-      </c>
-      <c r="CX39" t="str">
-        <v>RCAN1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B40" t="str">
-        <v>HLA-DQA1</v>
-      </c>
-      <c r="H40" t="str">
-        <v>NNMT</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC40" t="str">
-        <v>HLA-DPB1</v>
-      </c>
-      <c r="AN40" t="str">
-        <v>CLDN5</v>
-      </c>
-      <c r="AU40" t="s">
-        <v>174</v>
-      </c>
-      <c r="AX40" t="str">
-        <v>TYROBP</v>
-      </c>
-      <c r="BD40" t="s">
-        <v>175</v>
-      </c>
-      <c r="BM40" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP40" t="str">
-        <v>MGP</v>
-      </c>
-      <c r="BV40" t="s">
-        <v>180</v>
-      </c>
-      <c r="BY40" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB40" t="s">
-        <v>182</v>
-      </c>
-      <c r="CK40" t="s">
-        <v>183</v>
-      </c>
-      <c r="CN40" t="s">
-        <v>184</v>
-      </c>
-      <c r="CQ40" t="s">
-        <v>185</v>
-      </c>
-      <c r="CT40" t="str">
-        <v>CSF2RA</v>
-      </c>
-      <c r="CV40" t="s">
-        <v>190</v>
-      </c>
-      <c r="CX40" t="str">
-        <v>ADGRL4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B41" t="str">
-        <v>HLA-DPA1</v>
-      </c>
-      <c r="H41" t="str">
-        <v>C1R</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC41" t="str">
-        <v>HLA-DRA</v>
-      </c>
-      <c r="AN41" t="str">
-        <v>MMRN1</v>
-      </c>
-      <c r="AU41" t="s">
-        <v>201</v>
-      </c>
-      <c r="AX41" t="str">
-        <v>CD68</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>203</v>
-      </c>
-      <c r="BM41" t="s">
-        <v>82</v>
-      </c>
-      <c r="BP41" t="str">
-        <v>IGFBP7</v>
-      </c>
-      <c r="BV41" t="s">
-        <v>112</v>
-      </c>
-      <c r="BY41" t="s">
-        <v>207</v>
-      </c>
-      <c r="CB41" t="s">
-        <v>208</v>
-      </c>
-      <c r="CK41" t="s">
-        <v>144</v>
-      </c>
-      <c r="CN41" t="s">
-        <v>105</v>
-      </c>
-      <c r="CQ41" t="s">
-        <v>210</v>
-      </c>
-      <c r="CT41" t="str">
-        <v>HLA-DPB1</v>
-      </c>
-      <c r="CV41" t="s">
-        <v>215</v>
-      </c>
-      <c r="CX41" t="str">
-        <v>WWTR1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B42" t="str">
-        <v>HLA-DRB1</v>
-      </c>
-      <c r="H42" t="str">
-        <v>COL6A1</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC42" t="str">
-        <v>CD74</v>
-      </c>
-      <c r="AN42" t="str">
-        <v>TM4SF1</v>
-      </c>
-      <c r="AU42" t="s">
-        <v>223</v>
-      </c>
-      <c r="AX42" t="str">
-        <v>EMP3</v>
-      </c>
-      <c r="BD42" t="s">
-        <v>226</v>
-      </c>
-      <c r="BM42" t="s">
-        <v>134</v>
-      </c>
-      <c r="BV42" t="s">
-        <v>230</v>
-      </c>
-      <c r="BY42" t="s">
-        <v>231</v>
-      </c>
-      <c r="CB42" t="s">
-        <v>232</v>
-      </c>
-      <c r="CK42" t="s">
-        <v>162</v>
-      </c>
-      <c r="CN42" t="s">
-        <v>185</v>
-      </c>
-      <c r="CQ42" t="s">
-        <v>104</v>
-      </c>
-      <c r="CT42" t="str">
-        <v>LAMP3</v>
-      </c>
-      <c r="CV42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B43" t="str">
-        <v>HLA-DRB5</v>
-      </c>
-      <c r="H43" t="str">
-        <v>PLPP3</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC43" t="str">
-        <v>HLA-DPA1</v>
-      </c>
-      <c r="AN43" t="str">
-        <v>IGFBP7</v>
-      </c>
-      <c r="AU43" t="s">
-        <v>240</v>
-      </c>
-      <c r="AX43" t="str">
-        <v>CTSZ</v>
-      </c>
-      <c r="BD43" t="s">
-        <v>242</v>
-      </c>
-      <c r="BM43" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV43" t="s">
-        <v>244</v>
-      </c>
-      <c r="BY43" t="s">
-        <v>245</v>
-      </c>
-      <c r="CB43" t="s">
-        <v>207</v>
-      </c>
-      <c r="CK43" t="s">
-        <v>247</v>
-      </c>
-      <c r="CN43" t="s">
-        <v>162</v>
-      </c>
-      <c r="CQ43" t="s">
-        <v>248</v>
-      </c>
-      <c r="CT43" t="str">
-        <v>CD74</v>
-      </c>
-      <c r="CV43" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B44" t="str">
-        <v>HLA-DMA</v>
-      </c>
-      <c r="H44" t="str">
-        <v>CFH</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC44" t="str">
-        <v>HLA-DRB1</v>
-      </c>
-      <c r="AN44" t="str">
-        <v>PPFIBP1</v>
-      </c>
-      <c r="AU44" t="s">
-        <v>262</v>
-      </c>
-      <c r="AX44" t="str">
-        <v>HLA-DRA</v>
-      </c>
-      <c r="BD44" t="s">
-        <v>265</v>
-      </c>
-      <c r="BM44" t="s">
-        <v>267</v>
-      </c>
-      <c r="BV44" t="s">
-        <v>77</v>
-      </c>
-      <c r="BY44" t="s">
-        <v>269</v>
-      </c>
-      <c r="CB44" t="s">
-        <v>270</v>
-      </c>
-      <c r="CK44" t="s">
-        <v>105</v>
-      </c>
-      <c r="CN44" t="s">
-        <v>195</v>
-      </c>
-      <c r="CQ44" t="s">
-        <v>183</v>
-      </c>
-      <c r="CT44" t="str">
-        <v>MYO1G</v>
-      </c>
-      <c r="CV44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="45" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B45" t="str">
-        <v>RGS1</v>
-      </c>
-      <c r="H45" t="str">
-        <v>CFD</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC45" t="str">
-        <v>HLA-DQA1</v>
-      </c>
-      <c r="AN45" t="str">
-        <v>NNMT</v>
-      </c>
-      <c r="AU45" t="s">
-        <v>284</v>
-      </c>
-      <c r="AX45" t="str">
-        <v>CXCL8</v>
-      </c>
-      <c r="BD45" t="s">
-        <v>287</v>
-      </c>
-      <c r="BM45" t="s">
-        <v>288</v>
-      </c>
-      <c r="BV45" t="s">
-        <v>291</v>
-      </c>
-      <c r="BY45" t="s">
-        <v>215</v>
-      </c>
-      <c r="CB45" t="s">
-        <v>269</v>
-      </c>
-      <c r="CK45" t="s">
-        <v>293</v>
-      </c>
-      <c r="CN45" t="s">
-        <v>294</v>
-      </c>
-      <c r="CQ45" t="s">
-        <v>295</v>
-      </c>
-      <c r="CT45" t="str">
-        <v>IDO1</v>
-      </c>
-      <c r="CV45" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="46" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="B46" t="str">
-        <v>CD83</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC46" t="str">
-        <v>HLA-DRB5</v>
-      </c>
-      <c r="AU46" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD46" t="s">
-        <v>306</v>
-      </c>
-      <c r="BM46" t="s">
-        <v>309</v>
-      </c>
-      <c r="BV46" t="s">
-        <v>312</v>
-      </c>
-      <c r="BY46" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB46" t="s">
-        <v>313</v>
-      </c>
-      <c r="CK46" t="s">
-        <v>315</v>
-      </c>
-      <c r="CN46" t="s">
-        <v>316</v>
-      </c>
-      <c r="CQ46" t="s">
-        <v>184</v>
-      </c>
-      <c r="CV46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="Y47" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC47" t="str">
-        <v>CD83</v>
-      </c>
-      <c r="AU47" t="s">
-        <v>321</v>
-      </c>
-      <c r="BD47" t="s">
-        <v>324</v>
-      </c>
-      <c r="BM47" t="s">
-        <v>325</v>
-      </c>
-      <c r="BV47" t="s">
-        <v>327</v>
-      </c>
-      <c r="BY47" t="s">
-        <v>328</v>
-      </c>
-      <c r="CB47" t="s">
-        <v>329</v>
-      </c>
-      <c r="CK47" t="s">
-        <v>195</v>
-      </c>
-      <c r="CN47" t="s">
-        <v>301</v>
-      </c>
-      <c r="CQ47" t="s">
-        <v>331</v>
-      </c>
-      <c r="CV47" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="48" spans="2:102" x14ac:dyDescent="0.5">
-      <c r="Y48" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU48" t="s">
-        <v>337</v>
-      </c>
-      <c r="BD48" t="s">
-        <v>339</v>
-      </c>
-      <c r="BM48" t="s">
-        <v>340</v>
-      </c>
-      <c r="BV48" t="s">
-        <v>342</v>
-      </c>
-      <c r="BY48" t="s">
-        <v>343</v>
-      </c>
-      <c r="CB48" t="s">
-        <v>344</v>
-      </c>
-      <c r="CK48" t="s">
-        <v>319</v>
-      </c>
-      <c r="CN48" t="s">
-        <v>346</v>
-      </c>
-      <c r="CQ48" t="s">
-        <v>82</v>
-      </c>
-      <c r="CV48" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="49" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y49" t="s">
-        <v>352</v>
-      </c>
-      <c r="AU49" t="s">
-        <v>335</v>
-      </c>
-      <c r="BD49" t="s">
-        <v>358</v>
-      </c>
-      <c r="BM49" t="s">
-        <v>360</v>
-      </c>
-      <c r="BV49" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY49" t="s">
-        <v>364</v>
-      </c>
-      <c r="CB49" t="s">
-        <v>365</v>
-      </c>
-      <c r="CK49" t="s">
-        <v>308</v>
-      </c>
-      <c r="CN49" t="s">
-        <v>368</v>
-      </c>
-      <c r="CQ49" t="s">
-        <v>161</v>
-      </c>
-      <c r="CV49" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y50" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU50" t="s">
-        <v>339</v>
-      </c>
-      <c r="BD50" t="s">
-        <v>377</v>
-      </c>
-      <c r="BM50" t="s">
-        <v>104</v>
-      </c>
-      <c r="BV50" t="s">
-        <v>382</v>
-      </c>
-      <c r="BY50" t="s">
-        <v>365</v>
-      </c>
-      <c r="CB50" t="s">
-        <v>252</v>
-      </c>
-      <c r="CK50" t="s">
-        <v>219</v>
-      </c>
-      <c r="CN50" t="s">
-        <v>384</v>
-      </c>
-      <c r="CQ50" t="s">
-        <v>384</v>
-      </c>
-      <c r="CV50" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="51" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y51" t="s">
-        <v>108</v>
-      </c>
-      <c r="AU51" t="s">
-        <v>319</v>
-      </c>
-      <c r="BD51" t="s">
-        <v>399</v>
-      </c>
-      <c r="BM51" t="s">
-        <v>94</v>
-      </c>
-      <c r="BV51" t="s">
-        <v>400</v>
-      </c>
-      <c r="BY51" t="s">
-        <v>401</v>
-      </c>
-      <c r="CB51" t="s">
-        <v>402</v>
-      </c>
-      <c r="CK51" t="s">
-        <v>184</v>
-      </c>
-      <c r="CN51" t="s">
-        <v>256</v>
-      </c>
-      <c r="CQ51" t="s">
-        <v>405</v>
-      </c>
-      <c r="CV51" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y52" t="s">
-        <v>410</v>
-      </c>
-      <c r="AU52" t="s">
-        <v>411</v>
-      </c>
-      <c r="BD52" t="s">
-        <v>413</v>
-      </c>
-      <c r="BM52" t="s">
-        <v>120</v>
-      </c>
-      <c r="BV52" t="s">
-        <v>416</v>
-      </c>
-      <c r="BY52" t="s">
-        <v>417</v>
-      </c>
-      <c r="CB52" t="s">
-        <v>181</v>
-      </c>
-      <c r="CK52" t="s">
-        <v>331</v>
-      </c>
-      <c r="CN52" t="s">
-        <v>219</v>
-      </c>
-      <c r="CQ52" t="s">
-        <v>256</v>
-      </c>
-      <c r="CV52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="53" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y53" t="s">
-        <v>204</v>
-      </c>
-      <c r="AU53" t="s">
-        <v>425</v>
-      </c>
-      <c r="BD53" t="s">
-        <v>427</v>
-      </c>
-      <c r="BM53" t="s">
-        <v>319</v>
-      </c>
-      <c r="BV53" t="s">
-        <v>431</v>
-      </c>
-      <c r="BY53" t="s">
-        <v>432</v>
-      </c>
-      <c r="CB53" t="s">
-        <v>328</v>
-      </c>
-      <c r="CK53" t="s">
-        <v>405</v>
-      </c>
-      <c r="CN53" t="s">
-        <v>434</v>
-      </c>
-      <c r="CQ53" t="s">
-        <v>247</v>
-      </c>
-      <c r="CV53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y54" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU54" t="s">
-        <v>445</v>
-      </c>
-      <c r="BD54" t="s">
-        <v>448</v>
-      </c>
-      <c r="BM54" t="s">
-        <v>450</v>
-      </c>
-      <c r="BV54" t="s">
-        <v>453</v>
-      </c>
-      <c r="BY54" t="s">
-        <v>454</v>
-      </c>
-      <c r="CB54" t="s">
-        <v>455</v>
-      </c>
-      <c r="CK54" t="s">
-        <v>456</v>
-      </c>
-      <c r="CN54" t="s">
-        <v>405</v>
-      </c>
-      <c r="CQ54" t="s">
-        <v>457</v>
-      </c>
-      <c r="CV54" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y55" t="s">
-        <v>438</v>
-      </c>
-      <c r="AU55" t="s">
-        <v>466</v>
-      </c>
-      <c r="BD55" t="s">
-        <v>467</v>
-      </c>
-      <c r="BM55" t="s">
-        <v>168</v>
-      </c>
-      <c r="BV55" t="s">
-        <v>471</v>
-      </c>
-      <c r="BY55" t="s">
-        <v>252</v>
-      </c>
-      <c r="CB55" t="s">
-        <v>190</v>
-      </c>
-      <c r="CK55" t="s">
-        <v>474</v>
-      </c>
-      <c r="CN55" t="s">
-        <v>331</v>
-      </c>
-      <c r="CQ55" t="s">
-        <v>368</v>
-      </c>
-      <c r="CV55" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y56" t="s">
-        <v>480</v>
-      </c>
-      <c r="AU56" t="s">
-        <v>197</v>
-      </c>
-      <c r="BD56" t="s">
-        <v>482</v>
-      </c>
-      <c r="BM56" t="s">
-        <v>474</v>
-      </c>
-      <c r="BV56" t="s">
-        <v>195</v>
-      </c>
-      <c r="BY56" t="s">
-        <v>484</v>
-      </c>
-      <c r="CB56" t="s">
-        <v>485</v>
-      </c>
-      <c r="CK56" t="s">
-        <v>488</v>
-      </c>
-      <c r="CN56" t="s">
-        <v>489</v>
-      </c>
-      <c r="CQ56" t="s">
-        <v>335</v>
-      </c>
-      <c r="CV56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y57" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU57" t="s">
-        <v>499</v>
-      </c>
-      <c r="BD57" t="s">
-        <v>311</v>
-      </c>
-      <c r="BM57" t="s">
-        <v>501</v>
-      </c>
-      <c r="BV57" t="s">
-        <v>503</v>
-      </c>
-      <c r="BY57" t="s">
-        <v>504</v>
-      </c>
-      <c r="CB57" t="s">
-        <v>276</v>
-      </c>
-      <c r="CK57" t="s">
-        <v>441</v>
-      </c>
-      <c r="CN57" t="s">
-        <v>507</v>
-      </c>
-      <c r="CQ57" t="s">
-        <v>434</v>
-      </c>
-      <c r="CV57" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="58" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y58" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU58" t="s">
-        <v>346</v>
-      </c>
-      <c r="BD58" t="s">
-        <v>517</v>
-      </c>
-      <c r="BM58" t="s">
-        <v>520</v>
-      </c>
-      <c r="BV58" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY58" t="s">
-        <v>522</v>
-      </c>
-      <c r="CB58" t="s">
-        <v>523</v>
-      </c>
-      <c r="CK58" t="s">
-        <v>161</v>
-      </c>
-      <c r="CN58" t="s">
-        <v>144</v>
-      </c>
-      <c r="CQ58" t="s">
-        <v>525</v>
-      </c>
-      <c r="CV58" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="59" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y59" t="s">
-        <v>254</v>
-      </c>
-      <c r="AU59" t="s">
-        <v>533</v>
-      </c>
-      <c r="BD59" t="s">
-        <v>222</v>
-      </c>
-      <c r="BM59" t="s">
-        <v>536</v>
-      </c>
-      <c r="BV59" t="s">
-        <v>323</v>
-      </c>
-      <c r="BY59" t="s">
-        <v>388</v>
-      </c>
-      <c r="CB59" t="s">
-        <v>538</v>
-      </c>
-      <c r="CK59" t="s">
-        <v>248</v>
-      </c>
-      <c r="CN59" t="s">
-        <v>183</v>
-      </c>
-      <c r="CQ59" t="s">
-        <v>456</v>
-      </c>
-      <c r="CV59" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="60" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y60" t="s">
-        <v>460</v>
-      </c>
-      <c r="AU60" t="s">
-        <v>548</v>
-      </c>
-      <c r="BD60" t="s">
-        <v>241</v>
-      </c>
-      <c r="BM60" t="s">
-        <v>551</v>
-      </c>
-      <c r="BV60" t="s">
-        <v>357</v>
-      </c>
-      <c r="BY60" t="s">
-        <v>554</v>
-      </c>
-      <c r="CB60" t="s">
-        <v>555</v>
-      </c>
-      <c r="CK60" t="s">
-        <v>346</v>
-      </c>
-      <c r="CN60" t="s">
-        <v>293</v>
-      </c>
-      <c r="CQ60" t="s">
-        <v>301</v>
-      </c>
-      <c r="CV60" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="61" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y61" t="s">
-        <v>558</v>
-      </c>
-      <c r="AU61" t="s">
-        <v>561</v>
-      </c>
-      <c r="BD61" t="s">
-        <v>563</v>
-      </c>
-      <c r="BM61" t="s">
-        <v>393</v>
-      </c>
-      <c r="BV61" t="s">
-        <v>565</v>
-      </c>
-      <c r="BY61" t="s">
-        <v>566</v>
-      </c>
-      <c r="CB61" t="s">
-        <v>522</v>
-      </c>
-      <c r="CK61" t="s">
-        <v>325</v>
-      </c>
-      <c r="CN61" t="s">
-        <v>423</v>
-      </c>
-      <c r="CQ61" t="s">
-        <v>568</v>
-      </c>
-      <c r="CV61" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="62" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y62" t="s">
-        <v>307</v>
-      </c>
-      <c r="AU62" t="s">
-        <v>574</v>
-      </c>
-      <c r="BD62" t="s">
-        <v>576</v>
-      </c>
-      <c r="BM62" t="s">
-        <v>578</v>
-      </c>
-      <c r="BV62" t="s">
-        <v>580</v>
-      </c>
-      <c r="BY62" t="s">
-        <v>581</v>
-      </c>
-      <c r="CB62" t="s">
-        <v>582</v>
-      </c>
-      <c r="CK62" t="s">
-        <v>316</v>
-      </c>
-      <c r="CN62" t="s">
-        <v>282</v>
-      </c>
-      <c r="CQ62" t="s">
-        <v>441</v>
-      </c>
-      <c r="CV62" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="63" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y63" t="s">
-        <v>589</v>
-      </c>
-      <c r="AU63" t="s">
-        <v>592</v>
-      </c>
-      <c r="BD63" t="s">
-        <v>593</v>
-      </c>
-      <c r="BM63" t="s">
-        <v>594</v>
-      </c>
-      <c r="BV63" t="s">
-        <v>457</v>
-      </c>
-      <c r="BY63" t="s">
-        <v>597</v>
-      </c>
-      <c r="CB63" t="s">
-        <v>598</v>
-      </c>
-      <c r="CK63" t="s">
-        <v>168</v>
-      </c>
-      <c r="CN63" t="s">
-        <v>462</v>
-      </c>
-      <c r="CQ63" t="s">
-        <v>316</v>
-      </c>
-      <c r="CV63" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="64" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y64" t="s">
-        <v>120</v>
-      </c>
-      <c r="AU64" t="s">
-        <v>609</v>
-      </c>
-      <c r="BD64" t="s">
-        <v>610</v>
-      </c>
-      <c r="BM64" t="s">
-        <v>611</v>
-      </c>
-      <c r="BV64" t="s">
-        <v>558</v>
-      </c>
-      <c r="BY64" t="s">
-        <v>614</v>
-      </c>
-      <c r="CB64" t="s">
-        <v>343</v>
-      </c>
-      <c r="CK64" t="s">
-        <v>351</v>
-      </c>
-      <c r="CN64" t="s">
-        <v>456</v>
-      </c>
-      <c r="CQ64" t="s">
-        <v>463</v>
-      </c>
-      <c r="CV64" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="65" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y65" t="s">
-        <v>618</v>
-      </c>
-      <c r="AU65" t="s">
-        <v>621</v>
-      </c>
-      <c r="BD65" t="s">
-        <v>622</v>
-      </c>
-      <c r="BM65" t="s">
-        <v>623</v>
-      </c>
-      <c r="BV65" t="s">
-        <v>624</v>
-      </c>
-      <c r="BY65" t="s">
-        <v>625</v>
-      </c>
-      <c r="CB65" t="s">
-        <v>388</v>
-      </c>
-      <c r="CK65" t="s">
-        <v>291</v>
-      </c>
-      <c r="CN65" t="s">
-        <v>628</v>
-      </c>
-      <c r="CQ65" t="s">
-        <v>629</v>
-      </c>
-      <c r="CV65" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="66" spans="25:100" x14ac:dyDescent="0.5">
-      <c r="Y66" t="s">
-        <v>635</v>
-      </c>
-      <c r="AU66" t="s">
-        <v>637</v>
-      </c>
-      <c r="BD66" t="s">
-        <v>640</v>
-      </c>
-      <c r="BM66" t="s">
-        <v>641</v>
-      </c>
-      <c r="BV66" t="s">
-        <v>644</v>
-      </c>
-      <c r="BY66" t="s">
-        <v>555</v>
-      </c>
-      <c r="CB66" t="s">
-        <v>645</v>
-      </c>
-      <c r="CK66" t="s">
-        <v>95</v>
-      </c>
-      <c r="CQ66" t="s">
-        <v>262</v>
-      </c>
-      <c r="CV66" t="s">
-        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -14984,10 +13752,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9DD22D-A3A2-4816-8DBF-599D45A155FB}">
-  <dimension ref="A1:DN32"/>
+  <dimension ref="A1:DN66"/>
   <sheetViews>
-    <sheetView topLeftCell="T36" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -26033,6 +24801,1364 @@
       </c>
       <c r="DN32">
         <v>37.753419999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D36" t="s">
+        <v>692</v>
+      </c>
+      <c r="J36" t="s">
+        <v>693</v>
+      </c>
+      <c r="L36" t="s">
+        <v>695</v>
+      </c>
+      <c r="T36" t="s">
+        <v>664</v>
+      </c>
+      <c r="X36" t="s">
+        <v>696</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>697</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>667</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>698</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>699</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>700</v>
+      </c>
+      <c r="BK36" t="s">
+        <v>701</v>
+      </c>
+      <c r="BQ36" t="s">
+        <v>702</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>703</v>
+      </c>
+      <c r="BW36" t="s">
+        <v>687</v>
+      </c>
+      <c r="BZ36" t="s">
+        <v>704</v>
+      </c>
+      <c r="CF36" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI36" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL36" t="s">
+        <v>51</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>705</v>
+      </c>
+      <c r="CQ36" t="s">
+        <v>706</v>
+      </c>
+      <c r="CS36" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="37" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D37" t="str" cm="1">
+        <f t="array" ref="D37:D48">_xlfn._xlws.FILTER(Sheet1!B3:B32, ISNUMBER(MATCH(Sheet1!B3:B32, Sheet1!E3:E32, 0)))</f>
+        <v>HLA-DRA</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="J37" t="str" cm="1">
+        <f t="array" ref="J37:J47">_xlfn._xlws.FILTER(Sheet1!H3:H32, (ISNUMBER(MATCH(Sheet1!H3:H32, Sheet1!K3:K32, 0))) * (ISNUMBER(MATCH(Sheet1!H3:H32, Sheet1!N3:N32, 0))))</f>
+        <v>MMP2</v>
+      </c>
+      <c r="L37" t="str" cm="1">
+        <f t="array" ref="L37:L41">_xlfn._xlws.FILTER(Sheet1!Q3:Q32, (ISNUMBER(MATCH(Sheet1!Q3:Q32, Sheet1!T3:T32, 0))) * (ISNUMBER(MATCH(Sheet1!Q3:Q32, Sheet1!W3:W32, 0))))</f>
+        <v>KLRB1</v>
+      </c>
+      <c r="T37" t="s">
+        <v>84</v>
+      </c>
+      <c r="X37" t="str" cm="1">
+        <f t="array" ref="X37:X47">_xlfn._xlws.FILTER(Sheet1!AC3:AC32, (ISNUMBER(MATCH(Sheet1!AC3:AC32, Sheet1!AF3:AF32, 0))) * (ISNUMBER(MATCH(Sheet1!AC3:AC32, Sheet1!AI3:AI32, 0))) * (ISNUMBER(MATCH(Sheet1!AC3:AC32, Sheet1!AL3:AL32, 0))))</f>
+        <v>HLA-DQB2</v>
+      </c>
+      <c r="AI37" t="str" cm="1">
+        <f t="array" ref="AI37:AI45">_xlfn._xlws.FILTER(Sheet1!AO3:AO32, ISNUMBER(MATCH(Sheet1!AO3:AO32, Sheet1!AR3:AR32, 0)))</f>
+        <v>CCL21</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS37" t="str" cm="1">
+        <f t="array" ref="AS37:AS45">_xlfn._xlws.FILTER(Sheet1!AX3:AX32, ISNUMBER(MATCH(Sheet1!AX3:AX32, Sheet1!BA3:BA32, 0)))</f>
+        <v>RNASE1</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK37" t="str" cm="1">
+        <f t="array" ref="BK37:BK41">_xlfn._xlws.FILTER(Sheet1!BP3:BP32, ISNUMBER(MATCH(Sheet1!BP3:BP32, Sheet1!BS3:BS32, 0)))</f>
+        <v>CALD1</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>98</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>100</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>101</v>
+      </c>
+      <c r="BZ37" t="str" cm="1">
+        <f t="array" ref="BZ37:BZ38">_xlfn._xlws.FILTER(Sheet1!CE3:CE32, ISNUMBER(MATCH(Sheet1!CE3:CE32, Sheet1!CH3:CH32, 0)))</f>
+        <v>ID3</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>104</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>105</v>
+      </c>
+      <c r="CO37" t="str" cm="1">
+        <f t="array" ref="CO37:CO45">_xlfn._xlws.FILTER(Sheet1!DC3:DC32, (ISNUMBER(MATCH(Sheet1!DC3:DC32, Sheet1!DF3:DF32, 0))) * (ISNUMBER(MATCH(Sheet1!DC3:DC32, Sheet1!DI3:DI32, 0))))</f>
+        <v>CCR7</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>110</v>
+      </c>
+      <c r="CS37" t="str" cm="1">
+        <f t="array" ref="CS37:CS41">_xlfn._xlws.FILTER(Sheet1!CT3:CT32,(ISNUMBER(MATCH(Sheet1!CT3:CT32,Sheet1!CW3:CW32,0)))*(ISNUMBER(MATCH(Sheet1!CW3:CW32,Sheet1!CZ3:CZ32,0))))</f>
+        <v>TM4SF1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D38" t="str">
+        <v>HLA-DQB1</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="J38" t="str">
+        <v>TNFAIP6</v>
+      </c>
+      <c r="L38" t="str">
+        <v>PTPRC</v>
+      </c>
+      <c r="T38" t="s">
+        <v>116</v>
+      </c>
+      <c r="X38" t="str">
+        <v>HLA-DQB1</v>
+      </c>
+      <c r="AI38" t="str">
+        <v>TFF3</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS38" t="str">
+        <v>FTL</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK38" t="str">
+        <v>RGS5</v>
+      </c>
+      <c r="BQ38" t="s">
+        <v>130</v>
+      </c>
+      <c r="BT38" t="s">
+        <v>131</v>
+      </c>
+      <c r="BW38" t="s">
+        <v>110</v>
+      </c>
+      <c r="BZ38" t="str">
+        <v>PRRX1</v>
+      </c>
+      <c r="CF38" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI38" t="s">
+        <v>115</v>
+      </c>
+      <c r="CL38" t="s">
+        <v>134</v>
+      </c>
+      <c r="CO38" t="str">
+        <v>CCL22</v>
+      </c>
+      <c r="CQ38" t="s">
+        <v>139</v>
+      </c>
+      <c r="CS38" t="str">
+        <v>SPARCL1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D39" t="str">
+        <v>HLA-DPB1</v>
+      </c>
+      <c r="J39" t="str">
+        <v>C1S</v>
+      </c>
+      <c r="L39" t="str">
+        <v>SRGN</v>
+      </c>
+      <c r="T39" t="s">
+        <v>145</v>
+      </c>
+      <c r="X39" t="str">
+        <v>ACOT7</v>
+      </c>
+      <c r="AI39" t="str">
+        <v>TFPI</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS39" t="str">
+        <v>FCER1G</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK39" t="str">
+        <v>PLPP3</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>155</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>156</v>
+      </c>
+      <c r="BW39" t="s">
+        <v>157</v>
+      </c>
+      <c r="CF39" t="s">
+        <v>160</v>
+      </c>
+      <c r="CI39" t="s">
+        <v>161</v>
+      </c>
+      <c r="CL39" t="s">
+        <v>162</v>
+      </c>
+      <c r="CO39" t="str">
+        <v>TYROBP</v>
+      </c>
+      <c r="CQ39" t="s">
+        <v>101</v>
+      </c>
+      <c r="CS39" t="str">
+        <v>RCAN1</v>
+      </c>
+    </row>
+    <row r="40" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D40" t="str">
+        <v>GPR183</v>
+      </c>
+      <c r="J40" t="str">
+        <v>COL6A2</v>
+      </c>
+      <c r="L40" t="str">
+        <v>SARAF</v>
+      </c>
+      <c r="T40" t="s">
+        <v>170</v>
+      </c>
+      <c r="X40" t="str">
+        <v>HLA-DPB1</v>
+      </c>
+      <c r="AI40" t="str">
+        <v>CLDN5</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS40" t="str">
+        <v>TYROBP</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK40" t="str">
+        <v>MGP</v>
+      </c>
+      <c r="BQ40" t="s">
+        <v>180</v>
+      </c>
+      <c r="BT40" t="s">
+        <v>181</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>182</v>
+      </c>
+      <c r="CF40" t="s">
+        <v>183</v>
+      </c>
+      <c r="CI40" t="s">
+        <v>184</v>
+      </c>
+      <c r="CL40" t="s">
+        <v>185</v>
+      </c>
+      <c r="CO40" t="str">
+        <v>CSF2RA</v>
+      </c>
+      <c r="CQ40" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS40" t="str">
+        <v>ADGRL4</v>
+      </c>
+    </row>
+    <row r="41" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D41" t="str">
+        <v>CD74</v>
+      </c>
+      <c r="J41" t="str">
+        <v>DCN</v>
+      </c>
+      <c r="L41" t="str">
+        <v>CD69</v>
+      </c>
+      <c r="T41" t="s">
+        <v>111</v>
+      </c>
+      <c r="X41" t="str">
+        <v>HLA-DRA</v>
+      </c>
+      <c r="AI41" t="str">
+        <v>MMRN1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS41" t="str">
+        <v>CD68</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH41" t="s">
+        <v>82</v>
+      </c>
+      <c r="BK41" t="str">
+        <v>IGFBP7</v>
+      </c>
+      <c r="BQ41" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>207</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>208</v>
+      </c>
+      <c r="CF41" t="s">
+        <v>144</v>
+      </c>
+      <c r="CI41" t="s">
+        <v>105</v>
+      </c>
+      <c r="CL41" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO41" t="str">
+        <v>HLA-DPB1</v>
+      </c>
+      <c r="CQ41" t="s">
+        <v>215</v>
+      </c>
+      <c r="CS41" t="str">
+        <v>WWTR1</v>
+      </c>
+    </row>
+    <row r="42" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D42" t="str">
+        <v>HLA-DQA1</v>
+      </c>
+      <c r="J42" t="str">
+        <v>NNMT</v>
+      </c>
+      <c r="T42" t="s">
+        <v>165</v>
+      </c>
+      <c r="X42" t="str">
+        <v>CD74</v>
+      </c>
+      <c r="AI42" t="str">
+        <v>TM4SF1</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS42" t="str">
+        <v>EMP3</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>134</v>
+      </c>
+      <c r="BQ42" t="s">
+        <v>230</v>
+      </c>
+      <c r="BT42" t="s">
+        <v>231</v>
+      </c>
+      <c r="BW42" t="s">
+        <v>232</v>
+      </c>
+      <c r="CF42" t="s">
+        <v>162</v>
+      </c>
+      <c r="CI42" t="s">
+        <v>185</v>
+      </c>
+      <c r="CL42" t="s">
+        <v>104</v>
+      </c>
+      <c r="CO42" t="str">
+        <v>LAMP3</v>
+      </c>
+      <c r="CQ42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D43" t="str">
+        <v>HLA-DPA1</v>
+      </c>
+      <c r="J43" t="str">
+        <v>C1R</v>
+      </c>
+      <c r="T43" t="s">
+        <v>127</v>
+      </c>
+      <c r="X43" t="str">
+        <v>HLA-DPA1</v>
+      </c>
+      <c r="AI43" t="str">
+        <v>IGFBP7</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>240</v>
+      </c>
+      <c r="AS43" t="str">
+        <v>CTSZ</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH43" t="s">
+        <v>220</v>
+      </c>
+      <c r="BQ43" t="s">
+        <v>244</v>
+      </c>
+      <c r="BT43" t="s">
+        <v>245</v>
+      </c>
+      <c r="BW43" t="s">
+        <v>207</v>
+      </c>
+      <c r="CF43" t="s">
+        <v>247</v>
+      </c>
+      <c r="CI43" t="s">
+        <v>162</v>
+      </c>
+      <c r="CL43" t="s">
+        <v>248</v>
+      </c>
+      <c r="CO43" t="str">
+        <v>CD74</v>
+      </c>
+      <c r="CQ43" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D44" t="str">
+        <v>HLA-DRB1</v>
+      </c>
+      <c r="J44" t="str">
+        <v>COL6A1</v>
+      </c>
+      <c r="T44" t="s">
+        <v>87</v>
+      </c>
+      <c r="X44" t="str">
+        <v>HLA-DRB1</v>
+      </c>
+      <c r="AI44" t="str">
+        <v>PPFIBP1</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>262</v>
+      </c>
+      <c r="AS44" t="str">
+        <v>HLA-DRA</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>265</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>267</v>
+      </c>
+      <c r="BQ44" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT44" t="s">
+        <v>269</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>270</v>
+      </c>
+      <c r="CF44" t="s">
+        <v>105</v>
+      </c>
+      <c r="CI44" t="s">
+        <v>195</v>
+      </c>
+      <c r="CL44" t="s">
+        <v>183</v>
+      </c>
+      <c r="CO44" t="str">
+        <v>MYO1G</v>
+      </c>
+      <c r="CQ44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D45" t="str">
+        <v>HLA-DRB5</v>
+      </c>
+      <c r="J45" t="str">
+        <v>PLPP3</v>
+      </c>
+      <c r="T45" t="s">
+        <v>173</v>
+      </c>
+      <c r="X45" t="str">
+        <v>HLA-DQA1</v>
+      </c>
+      <c r="AI45" t="str">
+        <v>NNMT</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>284</v>
+      </c>
+      <c r="AS45" t="str">
+        <v>CXCL8</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>287</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>288</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>291</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>215</v>
+      </c>
+      <c r="BW45" t="s">
+        <v>269</v>
+      </c>
+      <c r="CF45" t="s">
+        <v>293</v>
+      </c>
+      <c r="CI45" t="s">
+        <v>294</v>
+      </c>
+      <c r="CL45" t="s">
+        <v>295</v>
+      </c>
+      <c r="CO45" t="str">
+        <v>IDO1</v>
+      </c>
+      <c r="CQ45" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="46" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D46" t="str">
+        <v>HLA-DMA</v>
+      </c>
+      <c r="J46" t="str">
+        <v>CFH</v>
+      </c>
+      <c r="T46" t="s">
+        <v>303</v>
+      </c>
+      <c r="X46" t="str">
+        <v>HLA-DRB5</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>306</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>309</v>
+      </c>
+      <c r="BQ46" t="s">
+        <v>312</v>
+      </c>
+      <c r="BT46" t="s">
+        <v>190</v>
+      </c>
+      <c r="BW46" t="s">
+        <v>313</v>
+      </c>
+      <c r="CF46" t="s">
+        <v>315</v>
+      </c>
+      <c r="CI46" t="s">
+        <v>316</v>
+      </c>
+      <c r="CL46" t="s">
+        <v>184</v>
+      </c>
+      <c r="CQ46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D47" t="str">
+        <v>RGS1</v>
+      </c>
+      <c r="J47" t="str">
+        <v>CFD</v>
+      </c>
+      <c r="T47" t="s">
+        <v>176</v>
+      </c>
+      <c r="X47" t="str">
+        <v>CD83</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>321</v>
+      </c>
+      <c r="AY47" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH47" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ47" t="s">
+        <v>327</v>
+      </c>
+      <c r="BT47" t="s">
+        <v>328</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>329</v>
+      </c>
+      <c r="CF47" t="s">
+        <v>195</v>
+      </c>
+      <c r="CI47" t="s">
+        <v>301</v>
+      </c>
+      <c r="CL47" t="s">
+        <v>331</v>
+      </c>
+      <c r="CQ47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="4:97" x14ac:dyDescent="0.5">
+      <c r="D48" t="str">
+        <v>CD83</v>
+      </c>
+      <c r="T48" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>337</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>339</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>340</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>342</v>
+      </c>
+      <c r="BT48" t="s">
+        <v>343</v>
+      </c>
+      <c r="BW48" t="s">
+        <v>344</v>
+      </c>
+      <c r="CF48" t="s">
+        <v>319</v>
+      </c>
+      <c r="CI48" t="s">
+        <v>346</v>
+      </c>
+      <c r="CL48" t="s">
+        <v>82</v>
+      </c>
+      <c r="CQ48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T49" t="s">
+        <v>352</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>335</v>
+      </c>
+      <c r="AY49" t="s">
+        <v>358</v>
+      </c>
+      <c r="BH49" t="s">
+        <v>360</v>
+      </c>
+      <c r="BQ49" t="s">
+        <v>363</v>
+      </c>
+      <c r="BT49" t="s">
+        <v>364</v>
+      </c>
+      <c r="BW49" t="s">
+        <v>365</v>
+      </c>
+      <c r="CF49" t="s">
+        <v>308</v>
+      </c>
+      <c r="CI49" t="s">
+        <v>368</v>
+      </c>
+      <c r="CL49" t="s">
+        <v>161</v>
+      </c>
+      <c r="CQ49" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T50" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>377</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ50" t="s">
+        <v>382</v>
+      </c>
+      <c r="BT50" t="s">
+        <v>365</v>
+      </c>
+      <c r="BW50" t="s">
+        <v>252</v>
+      </c>
+      <c r="CF50" t="s">
+        <v>219</v>
+      </c>
+      <c r="CI50" t="s">
+        <v>384</v>
+      </c>
+      <c r="CL50" t="s">
+        <v>384</v>
+      </c>
+      <c r="CQ50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T51" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>319</v>
+      </c>
+      <c r="AY51" t="s">
+        <v>399</v>
+      </c>
+      <c r="BH51" t="s">
+        <v>94</v>
+      </c>
+      <c r="BQ51" t="s">
+        <v>400</v>
+      </c>
+      <c r="BT51" t="s">
+        <v>401</v>
+      </c>
+      <c r="BW51" t="s">
+        <v>402</v>
+      </c>
+      <c r="CF51" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI51" t="s">
+        <v>256</v>
+      </c>
+      <c r="CL51" t="s">
+        <v>405</v>
+      </c>
+      <c r="CQ51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T52" t="s">
+        <v>410</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>411</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>413</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ52" t="s">
+        <v>416</v>
+      </c>
+      <c r="BT52" t="s">
+        <v>417</v>
+      </c>
+      <c r="BW52" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF52" t="s">
+        <v>331</v>
+      </c>
+      <c r="CI52" t="s">
+        <v>219</v>
+      </c>
+      <c r="CL52" t="s">
+        <v>256</v>
+      </c>
+      <c r="CQ52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="53" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T53" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>425</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>427</v>
+      </c>
+      <c r="BH53" t="s">
+        <v>319</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>431</v>
+      </c>
+      <c r="BT53" t="s">
+        <v>432</v>
+      </c>
+      <c r="BW53" t="s">
+        <v>328</v>
+      </c>
+      <c r="CF53" t="s">
+        <v>405</v>
+      </c>
+      <c r="CI53" t="s">
+        <v>434</v>
+      </c>
+      <c r="CL53" t="s">
+        <v>247</v>
+      </c>
+      <c r="CQ53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>445</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>448</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>450</v>
+      </c>
+      <c r="BQ54" t="s">
+        <v>453</v>
+      </c>
+      <c r="BT54" t="s">
+        <v>454</v>
+      </c>
+      <c r="BW54" t="s">
+        <v>455</v>
+      </c>
+      <c r="CF54" t="s">
+        <v>456</v>
+      </c>
+      <c r="CI54" t="s">
+        <v>405</v>
+      </c>
+      <c r="CL54" t="s">
+        <v>457</v>
+      </c>
+      <c r="CQ54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T55" t="s">
+        <v>438</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY55" t="s">
+        <v>467</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>168</v>
+      </c>
+      <c r="BQ55" t="s">
+        <v>471</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>252</v>
+      </c>
+      <c r="BW55" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF55" t="s">
+        <v>474</v>
+      </c>
+      <c r="CI55" t="s">
+        <v>331</v>
+      </c>
+      <c r="CL55" t="s">
+        <v>368</v>
+      </c>
+      <c r="CQ55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T56" t="s">
+        <v>480</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>197</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>482</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>474</v>
+      </c>
+      <c r="BQ56" t="s">
+        <v>195</v>
+      </c>
+      <c r="BT56" t="s">
+        <v>484</v>
+      </c>
+      <c r="BW56" t="s">
+        <v>485</v>
+      </c>
+      <c r="CF56" t="s">
+        <v>488</v>
+      </c>
+      <c r="CI56" t="s">
+        <v>489</v>
+      </c>
+      <c r="CL56" t="s">
+        <v>335</v>
+      </c>
+      <c r="CQ56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="57" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T57" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>499</v>
+      </c>
+      <c r="AY57" t="s">
+        <v>311</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>501</v>
+      </c>
+      <c r="BQ57" t="s">
+        <v>503</v>
+      </c>
+      <c r="BT57" t="s">
+        <v>504</v>
+      </c>
+      <c r="BW57" t="s">
+        <v>276</v>
+      </c>
+      <c r="CF57" t="s">
+        <v>441</v>
+      </c>
+      <c r="CI57" t="s">
+        <v>507</v>
+      </c>
+      <c r="CL57" t="s">
+        <v>434</v>
+      </c>
+      <c r="CQ57" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="58" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T58" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>346</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>517</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>520</v>
+      </c>
+      <c r="BQ58" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT58" t="s">
+        <v>522</v>
+      </c>
+      <c r="BW58" t="s">
+        <v>523</v>
+      </c>
+      <c r="CF58" t="s">
+        <v>161</v>
+      </c>
+      <c r="CI58" t="s">
+        <v>144</v>
+      </c>
+      <c r="CL58" t="s">
+        <v>525</v>
+      </c>
+      <c r="CQ58" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="59" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T59" t="s">
+        <v>254</v>
+      </c>
+      <c r="AP59" t="s">
+        <v>533</v>
+      </c>
+      <c r="AY59" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>536</v>
+      </c>
+      <c r="BQ59" t="s">
+        <v>323</v>
+      </c>
+      <c r="BT59" t="s">
+        <v>388</v>
+      </c>
+      <c r="BW59" t="s">
+        <v>538</v>
+      </c>
+      <c r="CF59" t="s">
+        <v>248</v>
+      </c>
+      <c r="CI59" t="s">
+        <v>183</v>
+      </c>
+      <c r="CL59" t="s">
+        <v>456</v>
+      </c>
+      <c r="CQ59" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="60" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T60" t="s">
+        <v>460</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>548</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>241</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>551</v>
+      </c>
+      <c r="BQ60" t="s">
+        <v>357</v>
+      </c>
+      <c r="BT60" t="s">
+        <v>554</v>
+      </c>
+      <c r="BW60" t="s">
+        <v>555</v>
+      </c>
+      <c r="CF60" t="s">
+        <v>346</v>
+      </c>
+      <c r="CI60" t="s">
+        <v>293</v>
+      </c>
+      <c r="CL60" t="s">
+        <v>301</v>
+      </c>
+      <c r="CQ60" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="61" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T61" t="s">
+        <v>558</v>
+      </c>
+      <c r="AP61" t="s">
+        <v>561</v>
+      </c>
+      <c r="AY61" t="s">
+        <v>563</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>393</v>
+      </c>
+      <c r="BQ61" t="s">
+        <v>565</v>
+      </c>
+      <c r="BT61" t="s">
+        <v>566</v>
+      </c>
+      <c r="BW61" t="s">
+        <v>522</v>
+      </c>
+      <c r="CF61" t="s">
+        <v>325</v>
+      </c>
+      <c r="CI61" t="s">
+        <v>423</v>
+      </c>
+      <c r="CL61" t="s">
+        <v>568</v>
+      </c>
+      <c r="CQ61" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T62" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>574</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>576</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>578</v>
+      </c>
+      <c r="BQ62" t="s">
+        <v>580</v>
+      </c>
+      <c r="BT62" t="s">
+        <v>581</v>
+      </c>
+      <c r="BW62" t="s">
+        <v>582</v>
+      </c>
+      <c r="CF62" t="s">
+        <v>316</v>
+      </c>
+      <c r="CI62" t="s">
+        <v>282</v>
+      </c>
+      <c r="CL62" t="s">
+        <v>441</v>
+      </c>
+      <c r="CQ62" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T63" t="s">
+        <v>589</v>
+      </c>
+      <c r="AP63" t="s">
+        <v>592</v>
+      </c>
+      <c r="AY63" t="s">
+        <v>593</v>
+      </c>
+      <c r="BH63" t="s">
+        <v>594</v>
+      </c>
+      <c r="BQ63" t="s">
+        <v>457</v>
+      </c>
+      <c r="BT63" t="s">
+        <v>597</v>
+      </c>
+      <c r="BW63" t="s">
+        <v>598</v>
+      </c>
+      <c r="CF63" t="s">
+        <v>168</v>
+      </c>
+      <c r="CI63" t="s">
+        <v>462</v>
+      </c>
+      <c r="CL63" t="s">
+        <v>316</v>
+      </c>
+      <c r="CQ63" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="64" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T64" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>609</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>610</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>611</v>
+      </c>
+      <c r="BQ64" t="s">
+        <v>558</v>
+      </c>
+      <c r="BT64" t="s">
+        <v>614</v>
+      </c>
+      <c r="BW64" t="s">
+        <v>343</v>
+      </c>
+      <c r="CF64" t="s">
+        <v>351</v>
+      </c>
+      <c r="CI64" t="s">
+        <v>456</v>
+      </c>
+      <c r="CL64" t="s">
+        <v>463</v>
+      </c>
+      <c r="CQ64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T65" t="s">
+        <v>618</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>621</v>
+      </c>
+      <c r="AY65" t="s">
+        <v>622</v>
+      </c>
+      <c r="BH65" t="s">
+        <v>623</v>
+      </c>
+      <c r="BQ65" t="s">
+        <v>624</v>
+      </c>
+      <c r="BT65" t="s">
+        <v>625</v>
+      </c>
+      <c r="BW65" t="s">
+        <v>388</v>
+      </c>
+      <c r="CF65" t="s">
+        <v>291</v>
+      </c>
+      <c r="CI65" t="s">
+        <v>628</v>
+      </c>
+      <c r="CL65" t="s">
+        <v>629</v>
+      </c>
+      <c r="CQ65" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="20:95" x14ac:dyDescent="0.5">
+      <c r="T66" t="s">
+        <v>635</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>637</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>640</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>641</v>
+      </c>
+      <c r="BQ66" t="s">
+        <v>644</v>
+      </c>
+      <c r="BT66" t="s">
+        <v>555</v>
+      </c>
+      <c r="BW66" t="s">
+        <v>645</v>
+      </c>
+      <c r="CF66" t="s">
+        <v>95</v>
+      </c>
+      <c r="CL66" t="s">
+        <v>262</v>
+      </c>
+      <c r="CQ66" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
